--- a/Input/raw_data.xlsx
+++ b/Input/raw_data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>name</t>
   </si>
@@ -54,6 +54,21 @@
   </si>
   <si>
     <t>divers</t>
+  </si>
+  <si>
+    <t>PETZ</t>
+  </si>
+  <si>
+    <t>puitzz</t>
+  </si>
+  <si>
+    <t>asasa</t>
+  </si>
+  <si>
+    <t>männlich</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -371,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,6 +449,39 @@
         <v>100</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>122222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>2.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Input/raw_data.xlsx
+++ b/Input/raw_data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>name</t>
   </si>
@@ -69,6 +69,15 @@
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>tesst</t>
+  </si>
+  <si>
+    <t>sss</t>
+  </si>
+  <si>
+    <t>der</t>
   </si>
 </sst>
 </file>
@@ -104,8 +113,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -386,15 +396,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -405,7 +415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -416,7 +426,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -427,7 +437,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -438,7 +448,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -449,7 +459,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -460,7 +470,7 @@
         <v>122222</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -471,7 +481,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -480,6 +490,28 @@
       </c>
       <c r="C8">
         <v>2.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>123</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1">
+        <v>44880</v>
       </c>
     </row>
   </sheetData>

--- a/Input/raw_data.xlsx
+++ b/Input/raw_data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>name</t>
   </si>
@@ -78,6 +78,24 @@
   </si>
   <si>
     <t>der</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noch </t>
+  </si>
+  <si>
+    <t>mehr</t>
+  </si>
+  <si>
+    <t>neue</t>
+  </si>
+  <si>
+    <t>Daten</t>
+  </si>
+  <si>
+    <t>kommen</t>
+  </si>
+  <si>
+    <t>hier</t>
   </si>
 </sst>
 </file>
@@ -396,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -514,6 +532,28 @@
         <v>44880</v>
       </c>
     </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Input/raw_data.xlsx
+++ b/Input/raw_data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>name</t>
   </si>
@@ -54,48 +54,6 @@
   </si>
   <si>
     <t>divers</t>
-  </si>
-  <si>
-    <t>PETZ</t>
-  </si>
-  <si>
-    <t>puitzz</t>
-  </si>
-  <si>
-    <t>asasa</t>
-  </si>
-  <si>
-    <t>männlich</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>tesst</t>
-  </si>
-  <si>
-    <t>sss</t>
-  </si>
-  <si>
-    <t>der</t>
-  </si>
-  <si>
-    <t xml:space="preserve">noch </t>
-  </si>
-  <si>
-    <t>mehr</t>
-  </si>
-  <si>
-    <t>neue</t>
-  </si>
-  <si>
-    <t>Daten</t>
-  </si>
-  <si>
-    <t>kommen</t>
-  </si>
-  <si>
-    <t>hier</t>
   </si>
 </sst>
 </file>
@@ -414,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A6" sqref="A6:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -477,82 +435,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>122222</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9">
-        <v>1111</v>
-      </c>
-    </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>123</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="1">
-        <v>44880</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
+      <c r="C10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Input/raw_data.xlsx
+++ b/Input/raw_data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>name</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>divers</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -375,12 +378,12 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:C12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -391,7 +394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -402,7 +405,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -413,7 +416,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -424,7 +427,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -435,7 +438,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
     </row>
   </sheetData>
